--- a/log/clustering_log/AgglomerativeClustering/compare all/_summary.xlsx
+++ b/log/clustering_log/AgglomerativeClustering/compare all/_summary.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="3次" sheetId="1" r:id="rId1"/>
+    <sheet name="10次" sheetId="2" r:id="rId2"/>
+    <sheet name="extraction" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
   <si>
     <t>AMI</t>
   </si>
@@ -42,9 +44,6 @@
     <t>tfidf whole article average 0.1 cosine False</t>
   </si>
   <si>
-    <t>whole article average 0.85 cosine False</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
@@ -54,7 +53,49 @@
     <t>std</t>
   </si>
   <si>
-    <t>test finished in 3480.12 seconds</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>article with keyword extraction average 0.45 cosine False</t>
+  </si>
+  <si>
+    <t>article with keyword extraction average 0.65 cosine True</t>
+  </si>
+  <si>
+    <t>article with keyword extraction average 0.65 dot True</t>
+  </si>
+  <si>
+    <t>tf whole article single 0.2 cosine False</t>
+  </si>
+  <si>
+    <t>whole article single 0.75 cosine False</t>
+  </si>
+  <si>
+    <t>test finished in 8229.50 seconds</t>
+  </si>
+  <si>
+    <t>article with keyword extraction average 0.65 cosine False</t>
+  </si>
+  <si>
+    <t>test finished in 3847.51 seconds</t>
+  </si>
+  <si>
+    <t>method0 k=10 centroid 0.6</t>
+  </si>
+  <si>
+    <t>method0 k=10 centroid 0.65</t>
+  </si>
+  <si>
+    <t>method1 k=10 centroid 0.6</t>
+  </si>
+  <si>
+    <t>method1 k=15 centroid 0.7</t>
+  </si>
+  <si>
+    <t>method1 k=5 centroid 0.55</t>
+  </si>
+  <si>
+    <t>test finished in 355.90 seconds</t>
   </si>
 </sst>
 </file>
@@ -169,77 +210,15 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mean</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>AMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARI</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Completeness</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Homogeneity</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V-measure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$B$2:$F$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9BF8-47B7-9EF0-056A109B32B2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$A$3</c:f>
+              <c:f>'3次'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tfidf whole article average 0.1 cosine False</c:v>
+                  <c:v>tf whole article single 0.2 cosine False</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -256,7 +235,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$B$1:$F$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'3次'!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'3次'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -279,31 +265,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$3:$F$3</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'3次'!$B$3:$G$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'3次'!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.53</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.68</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9BF8-47B7-9EF0-056A109B32B2}"/>
+              <c16:uniqueId val="{00000000-6222-450F-B3F7-659093520958}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -312,11 +305,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$A$4</c:f>
+              <c:f>'3次'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>whole article average 0.85 cosine False</c:v>
+                  <c:v>tfidf whole article average 0.1 cosine False</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -333,7 +326,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$B$1:$F$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'3次'!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'3次'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -356,31 +356,404 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$4:$F$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'3次'!$B$4:$G$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'3次'!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.38</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9BF8-47B7-9EF0-056A109B32B2}"/>
+              <c16:uniqueId val="{00000001-6222-450F-B3F7-659093520958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3次'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>whole article single 0.75 cosine False</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'3次'!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'3次'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'3次'!$B$5:$G$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'3次'!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6222-450F-B3F7-659093520958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3次'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>article with keyword extraction average 0.45 cosine False</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'3次'!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'3次'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'3次'!$B$6:$G$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'3次'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6222-450F-B3F7-659093520958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3次'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>article with keyword extraction average 0.65 cosine True</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'3次'!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'3次'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'3次'!$B$7:$G$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'3次'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6222-450F-B3F7-659093520958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3次'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>article with keyword extraction average 0.65 dot True</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'3次'!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'3次'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'3次'!$B$8:$G$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'3次'!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6222-450F-B3F7-659093520958}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -396,6 +769,98 @@
         <c:overlap val="-27"/>
         <c:axId val="1226263327"/>
         <c:axId val="1226260415"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'3次'!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>mean</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'3次'!$B$1:$G$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'3次'!$B$1:$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>AMI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ARI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Completeness</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Homogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>V-measure</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'3次'!$B$2:$G$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'3次'!$B$2:$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-6222-450F-B3F7-659093520958}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="1226263327"/>
@@ -581,7 +1046,1696 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10次'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tf whole article single 0.2 cosine False</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$6:$G$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6369-4304-BC52-AC5BBA3042CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10次'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tfidf whole article average 0.1 cosine False</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$7:$G$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6369-4304-BC52-AC5BBA3042CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10次'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>whole article single 0.75 cosine False</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$8:$G$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6369-4304-BC52-AC5BBA3042CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10次'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>article with keyword extraction average 0.65 cosine False</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$3:$G$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6369-4304-BC52-AC5BBA3042CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10次'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>article with keyword extraction average 0.65 cosine True</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$4:$G$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6369-4304-BC52-AC5BBA3042CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10次'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>article with keyword extraction average 0.65 dot True</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$5:$G$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6369-4304-BC52-AC5BBA3042CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1226263327"/>
+        <c:axId val="1226260415"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'10次'!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>mean</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'10次'!$B$1:$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>AMI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ARI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Completeness</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Homogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>V-measure</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'10次'!$B$2:$G$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'10次'!$B$2:$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-6369-4304-BC52-AC5BBA3042CD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1226263327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1226260415"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1226260415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1226263327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>extraction!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>method0 k=10 centroid 0.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>extraction!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>extraction!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D90-4CBB-AA40-9FEFBCA26A61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>extraction!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>method0 k=10 centroid 0.65</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>extraction!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>extraction!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7D90-4CBB-AA40-9FEFBCA26A61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>extraction!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>method1 k=10 centroid 0.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>extraction!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>extraction!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7D90-4CBB-AA40-9FEFBCA26A61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>extraction!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>method1 k=15 centroid 0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>extraction!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>extraction!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7D90-4CBB-AA40-9FEFBCA26A61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>extraction!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>method1 k=5 centroid 0.55</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>extraction!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>extraction!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7D90-4CBB-AA40-9FEFBCA26A61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2042521024"/>
+        <c:axId val="2042523104"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>extraction!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>mean</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>extraction!$B$1:$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>AMI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ARI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Completeness</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Homogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>V-measure</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>extraction!$B$2:$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-7D90-4CBB-AA40-9FEFBCA26A61}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2042521024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2042523104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2042523104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2042521024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1124,17 +3278,1097 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -1424,15 +4658,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1448,190 +4682,585 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.15</v>
+      </c>
+      <c r="D3">
+        <v>0.53</v>
+      </c>
+      <c r="E3">
+        <v>0.73</v>
+      </c>
+      <c r="F3">
+        <v>0.61</v>
+      </c>
+      <c r="G3">
+        <v>1287.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>0.53</v>
-      </c>
-      <c r="C3">
+      <c r="B4">
         <v>0.51</v>
       </c>
-      <c r="D3">
-        <v>0.68</v>
-      </c>
-      <c r="E3">
+      <c r="C4">
+        <v>0.46</v>
+      </c>
+      <c r="D4">
+        <v>0.67</v>
+      </c>
+      <c r="E4">
         <v>0.89</v>
       </c>
-      <c r="F3">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.38</v>
-      </c>
-      <c r="C4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D4">
+      <c r="F4">
+        <v>0.76</v>
+      </c>
+      <c r="G4">
+        <v>1137.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.45</v>
+      </c>
+      <c r="C5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D5">
         <v>0.6</v>
       </c>
-      <c r="E4">
-        <v>0.82</v>
-      </c>
-      <c r="F4">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0.74</v>
+      </c>
+      <c r="F5">
+        <v>0.66</v>
+      </c>
+      <c r="G5">
+        <v>84.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.69</v>
+        <v>0.4</v>
       </c>
       <c r="E6">
-        <v>0.91</v>
+        <v>0.01</v>
       </c>
       <c r="F6">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+      <c r="G6">
+        <v>178.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="C7">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="D7">
         <v>0.62</v>
       </c>
       <c r="E7">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="F7">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.68</v>
+      </c>
+      <c r="G7">
+        <v>28.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.45</v>
+      </c>
+      <c r="C8">
+        <v>0.38</v>
+      </c>
+      <c r="D8">
+        <v>0.61</v>
+      </c>
+      <c r="E8">
+        <v>0.76</v>
+      </c>
+      <c r="F8">
+        <v>0.68</v>
+      </c>
+      <c r="G8">
+        <v>17.79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.17</v>
+      </c>
+      <c r="D10">
+        <v>0.54</v>
+      </c>
+      <c r="E10">
+        <v>0.73</v>
+      </c>
+      <c r="F10">
+        <v>0.62</v>
+      </c>
+      <c r="G10">
+        <v>1674.73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0.54</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>0.89</v>
+      </c>
+      <c r="F11">
+        <v>0.78</v>
+      </c>
+      <c r="G11">
+        <v>1522.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.46</v>
+      </c>
+      <c r="C12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D12">
+        <v>0.62</v>
+      </c>
+      <c r="E12">
+        <v>0.75</v>
+      </c>
+      <c r="F12">
+        <v>0.67</v>
+      </c>
+      <c r="G12">
+        <v>145.58000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.53</v>
+      </c>
+      <c r="E13">
+        <v>0.02</v>
+      </c>
+      <c r="F13">
+        <v>0.03</v>
+      </c>
+      <c r="G13">
+        <v>301.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.47</v>
+      </c>
+      <c r="C14">
+        <v>0.38</v>
+      </c>
+      <c r="D14">
+        <v>0.63</v>
+      </c>
+      <c r="E14">
+        <v>0.78</v>
+      </c>
+      <c r="F14">
+        <v>0.68</v>
+      </c>
+      <c r="G14">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.46</v>
+      </c>
+      <c r="C15">
+        <v>0.38</v>
+      </c>
+      <c r="D15">
+        <v>0.62</v>
+      </c>
+      <c r="E15">
+        <v>0.77</v>
+      </c>
+      <c r="F15">
+        <v>0.68</v>
+      </c>
+      <c r="G15">
+        <v>20.47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.52</v>
+      </c>
+      <c r="E17">
+        <v>0.72</v>
+      </c>
+      <c r="F17">
+        <v>0.61</v>
+      </c>
+      <c r="G17">
+        <v>979.87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>0.47</v>
+      </c>
+      <c r="C18">
+        <v>0.41</v>
+      </c>
+      <c r="D18">
+        <v>0.64</v>
+      </c>
+      <c r="E18">
+        <v>0.88</v>
+      </c>
+      <c r="F18">
+        <v>0.74</v>
+      </c>
+      <c r="G18">
+        <v>939.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>0.43</v>
+      </c>
+      <c r="C19">
+        <v>0.26</v>
+      </c>
+      <c r="D19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E19">
+        <v>0.73</v>
+      </c>
+      <c r="F19">
+        <v>0.65</v>
+      </c>
+      <c r="G19">
+        <v>53.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.01</v>
+      </c>
+      <c r="G20">
+        <v>116.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>0.45</v>
+      </c>
+      <c r="C21">
+        <v>0.35</v>
+      </c>
+      <c r="D21">
+        <v>0.61</v>
+      </c>
+      <c r="E21">
+        <v>0.74</v>
+      </c>
+      <c r="F21">
+        <v>0.68</v>
+      </c>
+      <c r="G21">
+        <v>24.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>0.43</v>
+      </c>
+      <c r="C22">
+        <v>0.37</v>
+      </c>
+      <c r="D22">
+        <v>0.6</v>
+      </c>
+      <c r="E22">
+        <v>0.75</v>
+      </c>
+      <c r="F22">
+        <v>0.67</v>
+      </c>
+      <c r="G22">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.01</v>
+      </c>
+      <c r="D24">
+        <v>0.01</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>289.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>0.51</v>
-      </c>
-      <c r="C9">
-        <v>0.47</v>
-      </c>
-      <c r="D9">
-        <v>0.67</v>
-      </c>
-      <c r="E9">
-        <v>0.88</v>
-      </c>
-      <c r="F9">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>0.36</v>
-      </c>
-      <c r="C10">
-        <v>0.27</v>
-      </c>
-      <c r="D10">
-        <v>0.59</v>
-      </c>
-      <c r="E10">
-        <v>0.81</v>
-      </c>
-      <c r="F10">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
+      <c r="B25">
+        <v>0.03</v>
+      </c>
+      <c r="C25">
+        <v>0.04</v>
+      </c>
+      <c r="D25">
         <v>0.02</v>
       </c>
-      <c r="C12">
-        <v>0.03</v>
-      </c>
-      <c r="D12">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0.02</v>
+      </c>
+      <c r="G25">
+        <v>272.45999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
         <v>0.01</v>
       </c>
-      <c r="E12">
+      <c r="C26">
         <v>0.01</v>
       </c>
-      <c r="F12">
+      <c r="D26">
+        <v>0.02</v>
+      </c>
+      <c r="E26">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>0.03</v>
-      </c>
-      <c r="C13">
-        <v>0.03</v>
-      </c>
-      <c r="D13">
+      <c r="F26">
         <v>0.01</v>
       </c>
-      <c r="E13">
+      <c r="G26">
+        <v>43.16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0.1</v>
+      </c>
+      <c r="E27">
         <v>0.01</v>
       </c>
-      <c r="F13">
+      <c r="F27">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
+      <c r="G27">
+        <v>87.28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>0.01</v>
+      </c>
+      <c r="C28">
+        <v>0.01</v>
+      </c>
+      <c r="D28">
+        <v>0.01</v>
+      </c>
+      <c r="E28">
+        <v>0.02</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>0.01</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0.01</v>
+      </c>
+      <c r="E29">
+        <v>0.01</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1639,4 +5268,1144 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>0.45</v>
+      </c>
+      <c r="C3">
+        <v>0.34</v>
+      </c>
+      <c r="D3">
+        <v>0.61</v>
+      </c>
+      <c r="E3">
+        <v>0.76</v>
+      </c>
+      <c r="F3">
+        <v>0.68</v>
+      </c>
+      <c r="G3">
+        <v>110.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.42</v>
+      </c>
+      <c r="C4">
+        <v>0.34</v>
+      </c>
+      <c r="D4">
+        <v>0.6</v>
+      </c>
+      <c r="E4">
+        <v>0.75</v>
+      </c>
+      <c r="F4">
+        <v>0.66</v>
+      </c>
+      <c r="G4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.43</v>
+      </c>
+      <c r="C5">
+        <v>0.36</v>
+      </c>
+      <c r="D5">
+        <v>0.61</v>
+      </c>
+      <c r="E5">
+        <v>0.76</v>
+      </c>
+      <c r="F5">
+        <v>0.67</v>
+      </c>
+      <c r="G5">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.15</v>
+      </c>
+      <c r="D6">
+        <v>0.53</v>
+      </c>
+      <c r="E6">
+        <v>0.74</v>
+      </c>
+      <c r="F6">
+        <v>0.62</v>
+      </c>
+      <c r="G6">
+        <v>523.94000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.54</v>
+      </c>
+      <c r="C7">
+        <v>0.49</v>
+      </c>
+      <c r="D7">
+        <v>0.69</v>
+      </c>
+      <c r="E7">
+        <v>0.89</v>
+      </c>
+      <c r="F7">
+        <v>0.77</v>
+      </c>
+      <c r="G7">
+        <v>498.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0.45</v>
+      </c>
+      <c r="C8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.6</v>
+      </c>
+      <c r="E8">
+        <v>0.74</v>
+      </c>
+      <c r="F8">
+        <v>0.66</v>
+      </c>
+      <c r="G8">
+        <v>85.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>0.45</v>
+      </c>
+      <c r="C10">
+        <v>0.37</v>
+      </c>
+      <c r="D10">
+        <v>0.62</v>
+      </c>
+      <c r="E10">
+        <v>0.78</v>
+      </c>
+      <c r="F10">
+        <v>0.69</v>
+      </c>
+      <c r="G10">
+        <v>127.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.45</v>
+      </c>
+      <c r="C11">
+        <v>0.36</v>
+      </c>
+      <c r="D11">
+        <v>0.61</v>
+      </c>
+      <c r="E11">
+        <v>0.76</v>
+      </c>
+      <c r="F11">
+        <v>0.68</v>
+      </c>
+      <c r="G11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.46</v>
+      </c>
+      <c r="C12">
+        <v>0.36</v>
+      </c>
+      <c r="D12">
+        <v>0.62</v>
+      </c>
+      <c r="E12">
+        <v>0.77</v>
+      </c>
+      <c r="F12">
+        <v>0.68</v>
+      </c>
+      <c r="G12">
+        <v>22.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.16</v>
+      </c>
+      <c r="D13">
+        <v>0.54</v>
+      </c>
+      <c r="E13">
+        <v>0.75</v>
+      </c>
+      <c r="F13">
+        <v>0.62</v>
+      </c>
+      <c r="G13">
+        <v>590.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C14">
+        <v>0.52</v>
+      </c>
+      <c r="D14">
+        <v>0.69</v>
+      </c>
+      <c r="E14">
+        <v>0.89</v>
+      </c>
+      <c r="F14">
+        <v>0.78</v>
+      </c>
+      <c r="G14">
+        <v>562.04999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.46</v>
+      </c>
+      <c r="C15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D15">
+        <v>0.61</v>
+      </c>
+      <c r="E15">
+        <v>0.75</v>
+      </c>
+      <c r="F15">
+        <v>0.67</v>
+      </c>
+      <c r="G15">
+        <v>95.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0.44</v>
+      </c>
+      <c r="C17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D17">
+        <v>0.61</v>
+      </c>
+      <c r="E17">
+        <v>0.74</v>
+      </c>
+      <c r="F17">
+        <v>0.67</v>
+      </c>
+      <c r="G17">
+        <v>85.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>0.39</v>
+      </c>
+      <c r="C18">
+        <v>0.3</v>
+      </c>
+      <c r="D18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E18">
+        <v>0.72</v>
+      </c>
+      <c r="F18">
+        <v>0.64</v>
+      </c>
+      <c r="G18">
+        <v>29.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>0.41</v>
+      </c>
+      <c r="C19">
+        <v>0.36</v>
+      </c>
+      <c r="D19">
+        <v>0.59</v>
+      </c>
+      <c r="E19">
+        <v>0.75</v>
+      </c>
+      <c r="F19">
+        <v>0.66</v>
+      </c>
+      <c r="G19">
+        <v>17.82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>0.27</v>
+      </c>
+      <c r="C20">
+        <v>0.13</v>
+      </c>
+      <c r="D20">
+        <v>0.52</v>
+      </c>
+      <c r="E20">
+        <v>0.73</v>
+      </c>
+      <c r="F20">
+        <v>0.61</v>
+      </c>
+      <c r="G20">
+        <v>424.07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>0.52</v>
+      </c>
+      <c r="C21">
+        <v>0.46</v>
+      </c>
+      <c r="D21">
+        <v>0.68</v>
+      </c>
+      <c r="E21">
+        <v>0.89</v>
+      </c>
+      <c r="F21">
+        <v>0.77</v>
+      </c>
+      <c r="G21">
+        <v>377.57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>0.44</v>
+      </c>
+      <c r="C22">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D22">
+        <v>0.59</v>
+      </c>
+      <c r="E22">
+        <v>0.73</v>
+      </c>
+      <c r="F22">
+        <v>0.65</v>
+      </c>
+      <c r="G22">
+        <v>67.61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.03</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.02</v>
+      </c>
+      <c r="F24">
+        <v>0.01</v>
+      </c>
+      <c r="G24">
+        <v>17.829999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>0.02</v>
+      </c>
+      <c r="C25">
+        <v>0.03</v>
+      </c>
+      <c r="D25">
+        <v>0.02</v>
+      </c>
+      <c r="E25">
+        <v>0.02</v>
+      </c>
+      <c r="F25">
+        <v>0.02</v>
+      </c>
+      <c r="G25">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>0.02</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.01</v>
+      </c>
+      <c r="E26">
+        <v>0.01</v>
+      </c>
+      <c r="F26">
+        <v>0.01</v>
+      </c>
+      <c r="G26">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>0.01</v>
+      </c>
+      <c r="C27">
+        <v>0.01</v>
+      </c>
+      <c r="D27">
+        <v>0.01</v>
+      </c>
+      <c r="E27">
+        <v>0.01</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>71.930000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>0.01</v>
+      </c>
+      <c r="C28">
+        <v>0.02</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>85.83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>0.01</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0.01</v>
+      </c>
+      <c r="E29">
+        <v>0.01</v>
+      </c>
+      <c r="F29">
+        <v>0.01</v>
+      </c>
+      <c r="G29">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>0.49</v>
+      </c>
+      <c r="C3">
+        <v>0.27</v>
+      </c>
+      <c r="D3">
+        <v>0.61</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <v>0.61</v>
+      </c>
+      <c r="G3">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>0.44</v>
+      </c>
+      <c r="C4">
+        <v>0.38</v>
+      </c>
+      <c r="D4">
+        <v>0.61</v>
+      </c>
+      <c r="E4">
+        <v>0.76</v>
+      </c>
+      <c r="F4">
+        <v>0.68</v>
+      </c>
+      <c r="G4">
+        <v>24.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C5">
+        <v>0.35</v>
+      </c>
+      <c r="D5">
+        <v>0.65</v>
+      </c>
+      <c r="E5">
+        <v>0.66</v>
+      </c>
+      <c r="F5">
+        <v>0.66</v>
+      </c>
+      <c r="G5">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>0.49</v>
+      </c>
+      <c r="C6">
+        <v>0.43</v>
+      </c>
+      <c r="D6">
+        <v>0.64</v>
+      </c>
+      <c r="E6">
+        <v>0.79</v>
+      </c>
+      <c r="F6">
+        <v>0.71</v>
+      </c>
+      <c r="G6">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>0.45</v>
+      </c>
+      <c r="C7">
+        <v>0.42</v>
+      </c>
+      <c r="D7">
+        <v>0.62</v>
+      </c>
+      <c r="E7">
+        <v>0.79</v>
+      </c>
+      <c r="F7">
+        <v>0.69</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.63</v>
+      </c>
+      <c r="E9">
+        <v>0.61</v>
+      </c>
+      <c r="F9">
+        <v>0.61</v>
+      </c>
+      <c r="G9">
+        <v>23.54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>0.45</v>
+      </c>
+      <c r="C10">
+        <v>0.42</v>
+      </c>
+      <c r="D10">
+        <v>0.62</v>
+      </c>
+      <c r="E10">
+        <v>0.79</v>
+      </c>
+      <c r="F10">
+        <v>0.69</v>
+      </c>
+      <c r="G10">
+        <v>28.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C11">
+        <v>0.41</v>
+      </c>
+      <c r="D11">
+        <v>0.67</v>
+      </c>
+      <c r="E11">
+        <v>0.69</v>
+      </c>
+      <c r="F11">
+        <v>0.68</v>
+      </c>
+      <c r="G11">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <v>0.46</v>
+      </c>
+      <c r="D12">
+        <v>0.65</v>
+      </c>
+      <c r="E12">
+        <v>0.8</v>
+      </c>
+      <c r="F12">
+        <v>0.72</v>
+      </c>
+      <c r="G12">
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>0.46</v>
+      </c>
+      <c r="C13">
+        <v>0.44</v>
+      </c>
+      <c r="D13">
+        <v>0.63</v>
+      </c>
+      <c r="E13">
+        <v>0.79</v>
+      </c>
+      <c r="F13">
+        <v>0.7</v>
+      </c>
+      <c r="G13">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0.47</v>
+      </c>
+      <c r="C15">
+        <v>0.25</v>
+      </c>
+      <c r="D15">
+        <v>0.59</v>
+      </c>
+      <c r="E15">
+        <v>0.6</v>
+      </c>
+      <c r="F15">
+        <v>0.6</v>
+      </c>
+      <c r="G15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0.44</v>
+      </c>
+      <c r="C16">
+        <v>0.35</v>
+      </c>
+      <c r="D16">
+        <v>0.6</v>
+      </c>
+      <c r="E16">
+        <v>0.75</v>
+      </c>
+      <c r="F16">
+        <v>0.67</v>
+      </c>
+      <c r="G16">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0.54</v>
+      </c>
+      <c r="C17">
+        <v>0.31</v>
+      </c>
+      <c r="D17">
+        <v>0.64</v>
+      </c>
+      <c r="E17">
+        <v>0.63</v>
+      </c>
+      <c r="F17">
+        <v>0.64</v>
+      </c>
+      <c r="G17">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>0.47</v>
+      </c>
+      <c r="C18">
+        <v>0.4</v>
+      </c>
+      <c r="D18">
+        <v>0.63</v>
+      </c>
+      <c r="E18">
+        <v>0.78</v>
+      </c>
+      <c r="F18">
+        <v>0.7</v>
+      </c>
+      <c r="G18">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0.44</v>
+      </c>
+      <c r="C19">
+        <v>0.4</v>
+      </c>
+      <c r="D19">
+        <v>0.61</v>
+      </c>
+      <c r="E19">
+        <v>0.78</v>
+      </c>
+      <c r="F19">
+        <v>0.69</v>
+      </c>
+      <c r="G19">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.01</v>
+      </c>
+      <c r="C21">
+        <v>0.01</v>
+      </c>
+      <c r="D21">
+        <v>0.02</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.03</v>
+      </c>
+      <c r="D22">
+        <v>0.01</v>
+      </c>
+      <c r="E22">
+        <v>0.02</v>
+      </c>
+      <c r="F22">
+        <v>0.01</v>
+      </c>
+      <c r="G22">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.02</v>
+      </c>
+      <c r="C23">
+        <v>0.04</v>
+      </c>
+      <c r="D23">
+        <v>0.01</v>
+      </c>
+      <c r="E23">
+        <v>0.02</v>
+      </c>
+      <c r="F23">
+        <v>0.02</v>
+      </c>
+      <c r="G23">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.01</v>
+      </c>
+      <c r="C24">
+        <v>0.02</v>
+      </c>
+      <c r="D24">
+        <v>0.01</v>
+      </c>
+      <c r="E24">
+        <v>0.01</v>
+      </c>
+      <c r="F24">
+        <v>0.01</v>
+      </c>
+      <c r="G24">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.01</v>
+      </c>
+      <c r="C25">
+        <v>0.02</v>
+      </c>
+      <c r="D25">
+        <v>0.01</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/log/clustering_log/AgglomerativeClustering/compare all/_summary.xlsx
+++ b/log/clustering_log/AgglomerativeClustering/compare all/_summary.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhongting/project/HotTopicDetection/log/clustering_log/AgglomerativeClustering/compare all/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="3次" sheetId="1" r:id="rId1"/>
-    <sheet name="10次" sheetId="2" r:id="rId2"/>
-    <sheet name="extraction" sheetId="3" r:id="rId3"/>
+    <sheet name="1次" sheetId="4" r:id="rId1"/>
+    <sheet name="3次" sheetId="1" r:id="rId2"/>
+    <sheet name="10次" sheetId="2" r:id="rId3"/>
+    <sheet name="extraction" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="31">
   <si>
     <t>AMI</t>
   </si>
@@ -56,9 +65,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>article with keyword extraction average 0.45 cosine False</t>
-  </si>
-  <si>
     <t>article with keyword extraction average 0.65 cosine True</t>
   </si>
   <si>
@@ -69,9 +75,6 @@
   </si>
   <si>
     <t>whole article single 0.75 cosine False</t>
-  </si>
-  <si>
-    <t>test finished in 8229.50 seconds</t>
   </si>
   <si>
     <t>article with keyword extraction average 0.65 cosine False</t>
@@ -95,14 +98,38 @@
     <t>method1 k=5 centroid 0.55</t>
   </si>
   <si>
-    <t>test finished in 355.90 seconds</t>
+    <t>article with keyword extraction average 0.7 cosine False</t>
+  </si>
+  <si>
+    <t>article with keyword extraction average 0.7 cosine True</t>
+  </si>
+  <si>
+    <t>article with keyword extraction average 0.7 dot True</t>
+  </si>
+  <si>
+    <t>article with keyword extraction centroid 0.7 dot True</t>
+  </si>
+  <si>
+    <t>title centroid 0.55 dot True</t>
+  </si>
+  <si>
+    <t>method0 k=15 centroid 0.7</t>
+  </si>
+  <si>
+    <t>method0 k=5 centroid 0.55</t>
+  </si>
+  <si>
+    <t>test finished in 336.89 seconds</t>
+  </si>
+  <si>
+    <t>test finished in 3063.56 seconds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +139,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
@@ -138,8 +173,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -158,7 +194,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -210,197 +246,15 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3次'!$A$3</c:f>
+              <c:f>'1次'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>tf whole article single 0.2 cosine False</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3次'!$B$1:$G$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3次'!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>AMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARI</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Completeness</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Homogeneity</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V-measure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3次'!$B$3:$G$3</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3次'!$B$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.61</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6222-450F-B3F7-659093520958}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3次'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tfidf whole article average 0.1 cosine False</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3次'!$B$1:$G$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3次'!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>AMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARI</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Completeness</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Homogeneity</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V-measure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3次'!$B$4:$G$4</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3次'!$B$4:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.76</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6222-450F-B3F7-659093520958}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3次'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>whole article single 0.75 cosine False</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -417,14 +271,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3次'!$B$1:$G$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3次'!$B$1:$F$1</c:f>
+              <c:f>'1次'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -447,36 +294,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3次'!$B$5:$G$5</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3次'!$B$5:$F$5</c:f>
+              <c:f>'1次'!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66</c:v>
+                  <c:v>0.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6222-450F-B3F7-659093520958}"/>
             </c:ext>
@@ -484,14 +324,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3次'!$A$6</c:f>
+              <c:f>'1次'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>article with keyword extraction average 0.45 cosine False</c:v>
+                  <c:v>tfidf whole article average 0.1 cosine False</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -508,14 +348,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3次'!$B$1:$G$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3次'!$B$1:$F$1</c:f>
+              <c:f>'1次'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -538,36 +371,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3次'!$B$6:$G$6</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3次'!$B$6:$F$6</c:f>
+              <c:f>'1次'!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6222-450F-B3F7-659093520958}"/>
             </c:ext>
@@ -575,14 +401,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3次'!$A$7</c:f>
+              <c:f>'1次'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>article with keyword extraction average 0.65 cosine True</c:v>
+                  <c:v>title centroid 0.55 dot True</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -599,14 +425,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3次'!$B$1:$G$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3次'!$B$1:$F$1</c:f>
+              <c:f>'1次'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -629,51 +448,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3次'!$B$7:$G$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3次'!$B$7:$F$7</c:f>
+              <c:f>'1次'!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.46</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6222-450F-B3F7-659093520958}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3次'!$A$8</c:f>
+              <c:f>'1次'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>article with keyword extraction average 0.65 dot True</c:v>
+                  <c:v>whole article single 0.75 cosine False</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -692,14 +499,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3次'!$B$1:$G$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3次'!$B$1:$F$1</c:f>
+              <c:f>'1次'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -722,40 +522,320 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'3次'!$B$8:$G$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'3次'!$B$8:$F$8</c:f>
+              <c:f>'1次'!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6222-450F-B3F7-659093520958}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1次'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>article with keyword extraction average 0.7 cosine False</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1次'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1次'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1次'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>article with keyword extraction average 0.7 cosine True</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1次'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1次'!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1次'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>article with keyword extraction average 0.7 dot True</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1次'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1次'!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1次'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>article with keyword extraction centroid 0.7 dot True</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1次'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1次'!$B$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -767,103 +847,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1226263327"/>
-        <c:axId val="1226260415"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'3次'!$A$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>mean</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'3次'!$B$1:$G$1</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>'3次'!$B$1:$F$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>AMI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>ARI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Completeness</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Homogeneity</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>V-measure</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'3次'!$B$2:$G$2</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>'3次'!$B$2:$F$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-6222-450F-B3F7-659093520958}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="2136114384"/>
+        <c:axId val="2136092288"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1226263327"/>
+        <c:axId val="2136114384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +895,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1226260415"/>
+        <c:crossAx val="2136092288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -914,7 +903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1226260415"/>
+        <c:axId val="2136092288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +954,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1226263327"/>
+        <c:crossAx val="2136114384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1047,7 +1036,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1099,15 +1088,169 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3次'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>article with keyword extraction average 0.7 cosine False</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3次'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3次'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6222-450F-B3F7-659093520958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10次'!$A$6</c:f>
+              <c:f>'3次'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tf whole article single 0.2 cosine False</c:v>
+                  <c:v>article with keyword extraction average 0.7 cosine True</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3次'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3次'!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6222-450F-B3F7-659093520958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3次'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>article with keyword extraction average 0.7 dot True</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1124,14 +1267,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'10次'!$B$1:$F$1</c:f>
+              <c:f>'3次'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1154,51 +1290,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'10次'!$B$6:$G$6</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'10次'!$B$6:$F$6</c:f>
+              <c:f>'3次'!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6369-4304-BC52-AC5BBA3042CD}"/>
+              <c16:uniqueId val="{00000003-6222-450F-B3F7-659093520958}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10次'!$A$7</c:f>
+              <c:f>'3次'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tfidf whole article average 0.1 cosine False</c:v>
+                  <c:v>article with keyword extraction centroid 0.7 dot True</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1215,14 +1344,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'10次'!$B$1:$F$1</c:f>
+              <c:f>'3次'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1245,51 +1367,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'10次'!$B$7:$G$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'10次'!$B$7:$F$7</c:f>
+              <c:f>'3次'!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.54</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6369-4304-BC52-AC5BBA3042CD}"/>
+              <c16:uniqueId val="{00000004-6222-450F-B3F7-659093520958}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10次'!$A$8</c:f>
+              <c:f>'3次'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>whole article single 0.75 cosine False</c:v>
+                  <c:v>tf whole article single 0.2 cosine False</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1308,14 +1423,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'10次'!$B$1:$F$1</c:f>
+              <c:f>'3次'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1338,58 +1446,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'10次'!$B$8:$G$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'10次'!$B$8:$F$8</c:f>
+              <c:f>'3次'!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>0.29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6369-4304-BC52-AC5BBA3042CD}"/>
+              <c16:uniqueId val="{00000005-6222-450F-B3F7-659093520958}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="4"/>
+          <c:idx val="0"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10次'!$A$3</c:f>
+              <c:f>'3次'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>article with keyword extraction average 0.65 cosine False</c:v>
+                  <c:v>tfidf whole article average 0.1 cosine False</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1399,14 +1500,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'10次'!$B$1:$F$1</c:f>
+              <c:f>'3次'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1429,58 +1523,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'10次'!$B$3:$G$3</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'10次'!$B$3:$F$3</c:f>
+              <c:f>'3次'!$B$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6369-4304-BC52-AC5BBA3042CD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="5"/>
+          <c:idx val="7"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10次'!$A$4</c:f>
+              <c:f>'3次'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>article with keyword extraction average 0.65 cosine True</c:v>
+                  <c:v>title centroid 0.55 dot True</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1490,14 +1574,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'10次'!$B$1:$F$1</c:f>
+              <c:f>'3次'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1520,58 +1597,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'10次'!$B$4:$G$4</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'10次'!$B$4:$F$4</c:f>
+              <c:f>'3次'!$B$9:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.42</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6369-4304-BC52-AC5BBA3042CD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="6"/>
+          <c:idx val="8"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'10次'!$A$5</c:f>
+              <c:f>'3次'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>article with keyword extraction average 0.65 dot True</c:v>
+                  <c:v>whole article single 0.75 cosine False</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1581,14 +1648,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'10次'!$B$1:$F$1</c:f>
+              <c:f>'3次'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1611,14 +1671,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'10次'!$B$5:$G$5</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'10次'!$B$5:$F$5</c:f>
+              <c:f>'3次'!$B$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1626,25 +1679,20 @@
                   <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6369-4304-BC52-AC5BBA3042CD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1656,103 +1704,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1226263327"/>
-        <c:axId val="1226260415"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'10次'!$A$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>mean</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>'10次'!$B$1:$F$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>AMI</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>ARI</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Completeness</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Homogeneity</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>V-measure</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'10次'!$B$2:$G$2</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>'10次'!$B$2:$F$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-6369-4304-BC52-AC5BBA3042CD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="2106555152"/>
+        <c:axId val="2136112752"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1226263327"/>
+        <c:axId val="2106555152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,7 +1752,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1226260415"/>
+        <c:crossAx val="2136112752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1803,7 +1760,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1226260415"/>
+        <c:axId val="2136112752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1854,7 +1811,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1226263327"/>
+        <c:crossAx val="2106555152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1936,7 +1893,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1950,7 +1907,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1988,15 +1944,290 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>extraction!$A$3</c:f>
+              <c:f>'10次'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>method0 k=10 centroid 0.6</c:v>
+                  <c:v>tf whole article single 0.2 cosine False</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$6:$G$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6369-4304-BC52-AC5BBA3042CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10次'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tfidf whole article average 0.1 cosine False</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$7:$G$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6369-4304-BC52-AC5BBA3042CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10次'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>whole article single 0.75 cosine False</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$8:$G$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6369-4304-BC52-AC5BBA3042CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10次'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>article with keyword extraction average 0.65 cosine False</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2013,7 +2244,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>extraction!$B$1:$F$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2036,44 +2274,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>extraction!$B$3:$F$3</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$3:$G$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.49</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7D90-4CBB-AA40-9FEFBCA26A61}"/>
+              <c16:uniqueId val="{00000000-6369-4304-BC52-AC5BBA3042CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>extraction!$A$4</c:f>
+              <c:f>'10次'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>method0 k=10 centroid 0.65</c:v>
+                  <c:v>article with keyword extraction average 0.65 cosine True</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2090,7 +2335,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>extraction!$B$1:$F$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2113,44 +2365,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>extraction!$B$4:$F$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$4:$G$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.44</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7D90-4CBB-AA40-9FEFBCA26A61}"/>
+              <c16:uniqueId val="{00000001-6369-4304-BC52-AC5BBA3042CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>extraction!$A$5</c:f>
+              <c:f>'10次'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>method1 k=10 centroid 0.6</c:v>
+                  <c:v>article with keyword extraction average 0.65 dot True</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2167,7 +2426,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>extraction!$B$1:$F$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2190,185 +2456,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>extraction!$B$5:$F$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'10次'!$B$5:$G$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'10次'!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7D90-4CBB-AA40-9FEFBCA26A61}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>extraction!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>method1 k=15 centroid 0.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>extraction!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>AMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARI</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Completeness</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Homogeneity</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V-measure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>extraction!$B$6:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.71</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7D90-4CBB-AA40-9FEFBCA26A61}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>extraction!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>method1 k=5 centroid 0.55</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>extraction!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>AMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARI</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Completeness</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Homogeneity</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V-measure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>extraction!$B$7:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7D90-4CBB-AA40-9FEFBCA26A61}"/>
+              <c16:uniqueId val="{00000002-6369-4304-BC52-AC5BBA3042CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2382,9 +2501,9 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2042521024"/>
-        <c:axId val="2042523104"/>
-        <c:extLst>
+        <c:axId val="2073099888"/>
+        <c:axId val="2104676896"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -2392,10 +2511,10 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>extraction!$A$2</c15:sqref>
+                          <c15:sqref>'10次'!$A$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2421,8 +2540,11 @@
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'10次'!$B$1:$G$1</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>extraction!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>'10次'!$B$1:$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2450,8 +2572,11 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'10次'!$B$2:$G$2</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>extraction!$B$2:$F$2</c15:sqref>
+                          <c15:sqref>'10次'!$B$2:$F$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2461,9 +2586,9 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-7D90-4CBB-AA40-9FEFBCA26A61}"/>
+                    <c16:uniqueId val="{00000006-6369-4304-BC52-AC5BBA3042CD}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2472,7 +2597,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2042521024"/>
+        <c:axId val="2073099888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2515,7 +2640,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2042523104"/>
+        <c:crossAx val="2104676896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2523,7 +2648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2042523104"/>
+        <c:axId val="2104676896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2574,7 +2699,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2042521024"/>
+        <c:crossAx val="2073099888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2588,7 +2713,787 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>extraction!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>method0 k=10 centroid 0.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>extraction!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>extraction!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D90-4CBB-AA40-9FEFBCA26A61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>extraction!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>method0 k=10 centroid 0.65</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>extraction!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>extraction!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7D90-4CBB-AA40-9FEFBCA26A61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>extraction!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>method0 k=15 centroid 0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>extraction!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>extraction!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7D90-4CBB-AA40-9FEFBCA26A61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>extraction!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>method0 k=5 centroid 0.55</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>extraction!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>extraction!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7D90-4CBB-AA40-9FEFBCA26A61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>extraction!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>method1 k=10 centroid 0.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>extraction!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>extraction!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7D90-4CBB-AA40-9FEFBCA26A61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>extraction!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>method1 k=15 centroid 0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>extraction!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>extraction!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>extraction!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>method1 k=5 centroid 0.55</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>extraction!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>extraction!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2137977328"/>
+        <c:axId val="2137980560"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2137977328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2137980560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2137980560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2137977328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2775,6 +3680,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3782,6 +4727,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4296,8 +5744,45 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>128067</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4321,7 +5806,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4358,7 +5843,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4658,609 +6143,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G3" s="1">
+        <v>403.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="G4" s="1">
+        <v>374.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="B6" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="C6" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C3">
-        <v>0.15</v>
-      </c>
-      <c r="D3">
-        <v>0.53</v>
-      </c>
-      <c r="E3">
+      <c r="D6" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.73</v>
       </c>
-      <c r="F3">
-        <v>0.61</v>
-      </c>
-      <c r="G3">
-        <v>1287.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.51</v>
-      </c>
-      <c r="C4">
-        <v>0.46</v>
-      </c>
-      <c r="D4">
-        <v>0.67</v>
-      </c>
-      <c r="E4">
-        <v>0.89</v>
-      </c>
-      <c r="F4">
-        <v>0.76</v>
-      </c>
-      <c r="G4">
-        <v>1137.68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
+      <c r="F6" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G6" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>84.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1">
         <v>0.45</v>
       </c>
-      <c r="C5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D5">
-        <v>0.6</v>
-      </c>
-      <c r="E5">
-        <v>0.74</v>
-      </c>
-      <c r="F5">
-        <v>0.66</v>
-      </c>
-      <c r="G5">
-        <v>84.56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.4</v>
-      </c>
-      <c r="E6">
-        <v>0.01</v>
-      </c>
-      <c r="F6">
-        <v>0.02</v>
-      </c>
-      <c r="G6">
-        <v>178.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.46</v>
-      </c>
-      <c r="C7">
-        <v>0.37</v>
-      </c>
-      <c r="D7">
+      <c r="C8" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.62</v>
       </c>
-      <c r="E7">
-        <v>0.76</v>
-      </c>
-      <c r="F7">
-        <v>0.68</v>
-      </c>
-      <c r="G7">
-        <v>28.13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
+      <c r="E8" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="G8" s="1">
+        <v>27.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1">
         <v>0.45</v>
       </c>
-      <c r="C8">
-        <v>0.38</v>
-      </c>
-      <c r="D8">
-        <v>0.61</v>
-      </c>
-      <c r="E8">
-        <v>0.76</v>
-      </c>
-      <c r="F8">
-        <v>0.68</v>
-      </c>
-      <c r="G8">
-        <v>17.79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C10">
-        <v>0.17</v>
-      </c>
-      <c r="D10">
-        <v>0.54</v>
-      </c>
-      <c r="E10">
-        <v>0.73</v>
-      </c>
-      <c r="F10">
+      <c r="C9" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.62</v>
       </c>
-      <c r="G10">
-        <v>1674.73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>0.54</v>
-      </c>
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-      <c r="D11">
-        <v>0.7</v>
-      </c>
-      <c r="E11">
-        <v>0.89</v>
-      </c>
-      <c r="F11">
+      <c r="E9" s="1">
         <v>0.78</v>
       </c>
-      <c r="G11">
-        <v>1522.93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>0.46</v>
-      </c>
-      <c r="C12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D12">
+      <c r="F9" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="G9" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.62</v>
       </c>
-      <c r="E12">
-        <v>0.75</v>
-      </c>
-      <c r="F12">
-        <v>0.67</v>
-      </c>
-      <c r="G12">
-        <v>145.58000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0.53</v>
-      </c>
-      <c r="E13">
-        <v>0.02</v>
-      </c>
-      <c r="F13">
-        <v>0.03</v>
-      </c>
-      <c r="G13">
-        <v>301.63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0.47</v>
-      </c>
-      <c r="C14">
-        <v>0.38</v>
-      </c>
-      <c r="D14">
-        <v>0.63</v>
-      </c>
-      <c r="E14">
+      <c r="E10" s="1">
         <v>0.78</v>
       </c>
-      <c r="F14">
-        <v>0.68</v>
-      </c>
-      <c r="G14">
-        <v>33.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0.46</v>
-      </c>
-      <c r="C15">
-        <v>0.38</v>
-      </c>
-      <c r="D15">
-        <v>0.62</v>
-      </c>
-      <c r="E15">
-        <v>0.77</v>
-      </c>
-      <c r="F15">
-        <v>0.68</v>
-      </c>
-      <c r="G15">
-        <v>20.47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C17">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D17">
-        <v>0.52</v>
-      </c>
-      <c r="E17">
-        <v>0.72</v>
-      </c>
-      <c r="F17">
-        <v>0.61</v>
-      </c>
-      <c r="G17">
-        <v>979.87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>0.47</v>
-      </c>
-      <c r="C18">
-        <v>0.41</v>
-      </c>
-      <c r="D18">
-        <v>0.64</v>
-      </c>
-      <c r="E18">
-        <v>0.88</v>
-      </c>
-      <c r="F18">
-        <v>0.74</v>
-      </c>
-      <c r="G18">
-        <v>939.02</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>0.43</v>
-      </c>
-      <c r="C19">
-        <v>0.26</v>
-      </c>
-      <c r="D19">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E19">
-        <v>0.73</v>
-      </c>
-      <c r="F19">
-        <v>0.65</v>
-      </c>
-      <c r="G19">
-        <v>53.08</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0.01</v>
-      </c>
-      <c r="G20">
-        <v>116.45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>0.45</v>
-      </c>
-      <c r="C21">
-        <v>0.35</v>
-      </c>
-      <c r="D21">
-        <v>0.61</v>
-      </c>
-      <c r="E21">
-        <v>0.74</v>
-      </c>
-      <c r="F21">
-        <v>0.68</v>
-      </c>
-      <c r="G21">
-        <v>24.66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <v>0.43</v>
-      </c>
-      <c r="C22">
-        <v>0.37</v>
-      </c>
-      <c r="D22">
-        <v>0.6</v>
-      </c>
-      <c r="E22">
-        <v>0.75</v>
-      </c>
-      <c r="F22">
-        <v>0.67</v>
-      </c>
-      <c r="G22">
-        <v>16.29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0.01</v>
-      </c>
-      <c r="D24">
-        <v>0.01</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>289.12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>0.03</v>
-      </c>
-      <c r="C25">
-        <v>0.04</v>
-      </c>
-      <c r="D25">
-        <v>0.02</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0.02</v>
-      </c>
-      <c r="G25">
-        <v>272.45999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26">
-        <v>0.01</v>
-      </c>
-      <c r="C26">
-        <v>0.01</v>
-      </c>
-      <c r="D26">
-        <v>0.02</v>
-      </c>
-      <c r="E26">
-        <v>0.01</v>
-      </c>
-      <c r="F26">
-        <v>0.01</v>
-      </c>
-      <c r="G26">
-        <v>43.16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0.1</v>
-      </c>
-      <c r="E27">
-        <v>0.01</v>
-      </c>
-      <c r="F27">
-        <v>0.01</v>
-      </c>
-      <c r="G27">
-        <v>87.28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28">
-        <v>0.01</v>
-      </c>
-      <c r="C28">
-        <v>0.01</v>
-      </c>
-      <c r="D28">
-        <v>0.01</v>
-      </c>
-      <c r="E28">
-        <v>0.02</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29">
-        <v>0.01</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0.01</v>
-      </c>
-      <c r="E29">
-        <v>0.01</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>16</v>
+      <c r="F10" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7.07</v>
       </c>
     </row>
   </sheetData>
@@ -5272,610 +6376,825 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="G3" s="1">
+        <v>83.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1">
         <v>0.45</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G4" s="1">
+        <v>24.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G5" s="1">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="G7" s="1">
+        <v>421.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="G8" s="1">
+        <v>393.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G10" s="1">
+        <v>68.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="G12" s="1">
+        <v>90.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>28.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G14" s="1">
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G15" s="1">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G16" s="1">
+        <v>482.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="G17" s="1">
+        <v>447.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G19" s="1">
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="G21" s="1">
+        <v>71.040000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="C22" s="1">
         <v>0.34</v>
       </c>
-      <c r="D3">
-        <v>0.61</v>
-      </c>
-      <c r="E3">
+      <c r="D22" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G22" s="1">
+        <v>20.78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G23" s="1">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G25" s="1">
+        <v>307.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="F26" s="1">
         <v>0.76</v>
       </c>
-      <c r="F3">
-        <v>0.68</v>
-      </c>
-      <c r="G3">
-        <v>110.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>0.42</v>
-      </c>
-      <c r="C4">
-        <v>0.34</v>
-      </c>
-      <c r="D4">
-        <v>0.6</v>
-      </c>
-      <c r="E4">
-        <v>0.75</v>
-      </c>
-      <c r="F4">
-        <v>0.66</v>
-      </c>
-      <c r="G4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G26" s="1">
+        <v>292.61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G28" s="1">
+        <v>57.63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>0.43</v>
-      </c>
-      <c r="C5">
-        <v>0.36</v>
-      </c>
-      <c r="D5">
-        <v>0.61</v>
-      </c>
-      <c r="E5">
-        <v>0.76</v>
-      </c>
-      <c r="F5">
-        <v>0.67</v>
-      </c>
-      <c r="G5">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G34" s="1">
+        <v>80.83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>71.260000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C6">
-        <v>0.15</v>
-      </c>
-      <c r="D6">
-        <v>0.53</v>
-      </c>
-      <c r="E6">
-        <v>0.74</v>
-      </c>
-      <c r="F6">
-        <v>0.62</v>
-      </c>
-      <c r="G6">
-        <v>523.94000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.54</v>
-      </c>
-      <c r="C7">
-        <v>0.49</v>
-      </c>
-      <c r="D7">
-        <v>0.69</v>
-      </c>
-      <c r="E7">
-        <v>0.89</v>
-      </c>
-      <c r="F7">
-        <v>0.77</v>
-      </c>
-      <c r="G7">
-        <v>498.91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>0.45</v>
-      </c>
-      <c r="C8">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D8">
-        <v>0.6</v>
-      </c>
-      <c r="E8">
-        <v>0.74</v>
-      </c>
-      <c r="F8">
-        <v>0.66</v>
-      </c>
-      <c r="G8">
-        <v>85.31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>0.45</v>
-      </c>
-      <c r="C10">
-        <v>0.37</v>
-      </c>
-      <c r="D10">
-        <v>0.62</v>
-      </c>
-      <c r="E10">
-        <v>0.78</v>
-      </c>
-      <c r="F10">
-        <v>0.69</v>
-      </c>
-      <c r="G10">
-        <v>127.14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>0.45</v>
-      </c>
-      <c r="C11">
-        <v>0.36</v>
-      </c>
-      <c r="D11">
-        <v>0.61</v>
-      </c>
-      <c r="E11">
-        <v>0.76</v>
-      </c>
-      <c r="F11">
-        <v>0.68</v>
-      </c>
-      <c r="G11">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>0.46</v>
-      </c>
-      <c r="C12">
-        <v>0.36</v>
-      </c>
-      <c r="D12">
-        <v>0.62</v>
-      </c>
-      <c r="E12">
-        <v>0.77</v>
-      </c>
-      <c r="F12">
-        <v>0.68</v>
-      </c>
-      <c r="G12">
-        <v>22.76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C13">
-        <v>0.16</v>
-      </c>
-      <c r="D13">
-        <v>0.54</v>
-      </c>
-      <c r="E13">
-        <v>0.75</v>
-      </c>
-      <c r="F13">
-        <v>0.62</v>
-      </c>
-      <c r="G13">
-        <v>590.61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C14">
-        <v>0.52</v>
-      </c>
-      <c r="D14">
-        <v>0.69</v>
-      </c>
-      <c r="E14">
-        <v>0.89</v>
-      </c>
-      <c r="F14">
-        <v>0.78</v>
-      </c>
-      <c r="G14">
-        <v>562.04999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>0.46</v>
-      </c>
-      <c r="C15">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D15">
-        <v>0.61</v>
-      </c>
-      <c r="E15">
-        <v>0.75</v>
-      </c>
-      <c r="F15">
-        <v>0.67</v>
-      </c>
-      <c r="G15">
-        <v>95.66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>0.44</v>
-      </c>
-      <c r="C17">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D17">
-        <v>0.61</v>
-      </c>
-      <c r="E17">
-        <v>0.74</v>
-      </c>
-      <c r="F17">
-        <v>0.67</v>
-      </c>
-      <c r="G17">
-        <v>85.83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>0.39</v>
-      </c>
-      <c r="C18">
-        <v>0.3</v>
-      </c>
-      <c r="D18">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E18">
-        <v>0.72</v>
-      </c>
-      <c r="F18">
-        <v>0.64</v>
-      </c>
-      <c r="G18">
-        <v>29.21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>0.41</v>
-      </c>
-      <c r="C19">
-        <v>0.36</v>
-      </c>
-      <c r="D19">
-        <v>0.59</v>
-      </c>
-      <c r="E19">
-        <v>0.75</v>
-      </c>
-      <c r="F19">
-        <v>0.66</v>
-      </c>
-      <c r="G19">
-        <v>17.82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>0.27</v>
-      </c>
-      <c r="C20">
-        <v>0.13</v>
-      </c>
-      <c r="D20">
-        <v>0.52</v>
-      </c>
-      <c r="E20">
-        <v>0.73</v>
-      </c>
-      <c r="F20">
-        <v>0.61</v>
-      </c>
-      <c r="G20">
-        <v>424.07</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>0.52</v>
-      </c>
-      <c r="C21">
-        <v>0.46</v>
-      </c>
-      <c r="D21">
-        <v>0.68</v>
-      </c>
-      <c r="E21">
-        <v>0.89</v>
-      </c>
-      <c r="F21">
-        <v>0.77</v>
-      </c>
-      <c r="G21">
-        <v>377.57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22">
-        <v>0.44</v>
-      </c>
-      <c r="C22">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D22">
-        <v>0.59</v>
-      </c>
-      <c r="E22">
-        <v>0.73</v>
-      </c>
-      <c r="F22">
-        <v>0.65</v>
-      </c>
-      <c r="G22">
-        <v>67.61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
+      <c r="B37" s="1">
         <v>0.03</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="C37" s="1">
         <v>0.02</v>
       </c>
-      <c r="F24">
+      <c r="D37" s="1">
         <v>0.01</v>
       </c>
-      <c r="G24">
-        <v>17.829999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25">
+      <c r="E37" s="1">
         <v>0.02</v>
       </c>
-      <c r="C25">
-        <v>0.03</v>
-      </c>
-      <c r="D25">
-        <v>0.02</v>
-      </c>
-      <c r="E25">
-        <v>0.02</v>
-      </c>
-      <c r="F25">
-        <v>0.02</v>
-      </c>
-      <c r="G25">
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26">
-        <v>0.02</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
+      <c r="F37" s="1">
         <v>0.01</v>
       </c>
-      <c r="E26">
-        <v>0.01</v>
-      </c>
-      <c r="F26">
-        <v>0.01</v>
-      </c>
-      <c r="G26">
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27">
-        <v>0.01</v>
-      </c>
-      <c r="C27">
-        <v>0.01</v>
-      </c>
-      <c r="D27">
-        <v>0.01</v>
-      </c>
-      <c r="E27">
-        <v>0.01</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>71.930000000000007</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>0.01</v>
-      </c>
-      <c r="C28">
-        <v>0.02</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>85.83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29">
-        <v>0.01</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0.01</v>
-      </c>
-      <c r="E29">
-        <v>0.01</v>
-      </c>
-      <c r="F29">
-        <v>0.01</v>
-      </c>
-      <c r="G29">
-        <v>12.58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
+      <c r="G37" s="1">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5886,521 +7205,1350 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0.45</v>
+      </c>
+      <c r="C3">
+        <v>0.34</v>
+      </c>
+      <c r="D3">
+        <v>0.61</v>
+      </c>
+      <c r="E3">
+        <v>0.76</v>
+      </c>
+      <c r="F3">
+        <v>0.68</v>
+      </c>
+      <c r="G3">
+        <v>110.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.42</v>
+      </c>
+      <c r="C4">
+        <v>0.34</v>
+      </c>
+      <c r="D4">
+        <v>0.6</v>
+      </c>
+      <c r="E4">
+        <v>0.75</v>
+      </c>
+      <c r="F4">
+        <v>0.66</v>
+      </c>
+      <c r="G4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.43</v>
+      </c>
+      <c r="C5">
+        <v>0.36</v>
+      </c>
+      <c r="D5">
+        <v>0.61</v>
+      </c>
+      <c r="E5">
+        <v>0.76</v>
+      </c>
+      <c r="F5">
+        <v>0.67</v>
+      </c>
+      <c r="G5">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.15</v>
+      </c>
+      <c r="D6">
+        <v>0.53</v>
+      </c>
+      <c r="E6">
+        <v>0.74</v>
+      </c>
+      <c r="F6">
+        <v>0.62</v>
+      </c>
+      <c r="G6">
+        <v>523.94000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.54</v>
+      </c>
+      <c r="C7">
+        <v>0.49</v>
+      </c>
+      <c r="D7">
+        <v>0.69</v>
+      </c>
+      <c r="E7">
+        <v>0.89</v>
+      </c>
+      <c r="F7">
+        <v>0.77</v>
+      </c>
+      <c r="G7">
+        <v>498.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0.45</v>
+      </c>
+      <c r="C8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.6</v>
+      </c>
+      <c r="E8">
+        <v>0.74</v>
+      </c>
+      <c r="F8">
+        <v>0.66</v>
+      </c>
+      <c r="G8">
+        <v>85.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.45</v>
+      </c>
+      <c r="C10">
+        <v>0.37</v>
+      </c>
+      <c r="D10">
+        <v>0.62</v>
+      </c>
+      <c r="E10">
+        <v>0.78</v>
+      </c>
+      <c r="F10">
+        <v>0.69</v>
+      </c>
+      <c r="G10">
+        <v>127.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.45</v>
+      </c>
+      <c r="C11">
+        <v>0.36</v>
+      </c>
+      <c r="D11">
+        <v>0.61</v>
+      </c>
+      <c r="E11">
+        <v>0.76</v>
+      </c>
+      <c r="F11">
+        <v>0.68</v>
+      </c>
+      <c r="G11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.46</v>
+      </c>
+      <c r="C12">
+        <v>0.36</v>
+      </c>
+      <c r="D12">
+        <v>0.62</v>
+      </c>
+      <c r="E12">
+        <v>0.77</v>
+      </c>
+      <c r="F12">
+        <v>0.68</v>
+      </c>
+      <c r="G12">
+        <v>22.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.16</v>
+      </c>
+      <c r="D13">
+        <v>0.54</v>
+      </c>
+      <c r="E13">
+        <v>0.75</v>
+      </c>
+      <c r="F13">
+        <v>0.62</v>
+      </c>
+      <c r="G13">
+        <v>590.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C14">
+        <v>0.52</v>
+      </c>
+      <c r="D14">
+        <v>0.69</v>
+      </c>
+      <c r="E14">
+        <v>0.89</v>
+      </c>
+      <c r="F14">
+        <v>0.78</v>
+      </c>
+      <c r="G14">
+        <v>562.04999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.46</v>
+      </c>
+      <c r="C15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D15">
+        <v>0.61</v>
+      </c>
+      <c r="E15">
+        <v>0.75</v>
+      </c>
+      <c r="F15">
+        <v>0.67</v>
+      </c>
+      <c r="G15">
+        <v>95.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.44</v>
+      </c>
+      <c r="C17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D17">
+        <v>0.61</v>
+      </c>
+      <c r="E17">
+        <v>0.74</v>
+      </c>
+      <c r="F17">
+        <v>0.67</v>
+      </c>
+      <c r="G17">
+        <v>85.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>0.39</v>
+      </c>
+      <c r="C18">
+        <v>0.3</v>
+      </c>
+      <c r="D18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E18">
+        <v>0.72</v>
+      </c>
+      <c r="F18">
+        <v>0.64</v>
+      </c>
+      <c r="G18">
+        <v>29.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>0.41</v>
+      </c>
+      <c r="C19">
+        <v>0.36</v>
+      </c>
+      <c r="D19">
+        <v>0.59</v>
+      </c>
+      <c r="E19">
+        <v>0.75</v>
+      </c>
+      <c r="F19">
+        <v>0.66</v>
+      </c>
+      <c r="G19">
+        <v>17.82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>0.27</v>
+      </c>
+      <c r="C20">
+        <v>0.13</v>
+      </c>
+      <c r="D20">
+        <v>0.52</v>
+      </c>
+      <c r="E20">
+        <v>0.73</v>
+      </c>
+      <c r="F20">
+        <v>0.61</v>
+      </c>
+      <c r="G20">
+        <v>424.07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>0.52</v>
+      </c>
+      <c r="C21">
+        <v>0.46</v>
+      </c>
+      <c r="D21">
+        <v>0.68</v>
+      </c>
+      <c r="E21">
+        <v>0.89</v>
+      </c>
+      <c r="F21">
+        <v>0.77</v>
+      </c>
+      <c r="G21">
+        <v>377.57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>0.44</v>
+      </c>
+      <c r="C22">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D22">
+        <v>0.59</v>
+      </c>
+      <c r="E22">
+        <v>0.73</v>
+      </c>
+      <c r="F22">
+        <v>0.65</v>
+      </c>
+      <c r="G22">
+        <v>67.61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.03</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.02</v>
+      </c>
+      <c r="F24">
+        <v>0.01</v>
+      </c>
+      <c r="G24">
+        <v>17.829999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>0.02</v>
+      </c>
+      <c r="C25">
+        <v>0.03</v>
+      </c>
+      <c r="D25">
+        <v>0.02</v>
+      </c>
+      <c r="E25">
+        <v>0.02</v>
+      </c>
+      <c r="F25">
+        <v>0.02</v>
+      </c>
+      <c r="G25">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>0.02</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.01</v>
+      </c>
+      <c r="E26">
+        <v>0.01</v>
+      </c>
+      <c r="F26">
+        <v>0.01</v>
+      </c>
+      <c r="G26">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>0.01</v>
+      </c>
+      <c r="C27">
+        <v>0.01</v>
+      </c>
+      <c r="D27">
+        <v>0.01</v>
+      </c>
+      <c r="E27">
+        <v>0.01</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>71.930000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>0.01</v>
+      </c>
+      <c r="C28">
+        <v>0.02</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>85.83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>0.01</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0.01</v>
+      </c>
+      <c r="E29">
+        <v>0.01</v>
+      </c>
+      <c r="F29">
+        <v>0.01</v>
+      </c>
+      <c r="G29">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection sqref="A1:G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G3" s="1">
+        <v>14.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G4" s="1">
+        <v>15.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G5" s="1">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G6" s="1">
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
+      <c r="B7" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
         <v>0.49</v>
       </c>
-      <c r="C3">
+      <c r="C8" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G11" s="1">
+        <v>16.079999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G12" s="1">
+        <v>16.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G13" s="1">
+        <v>16.32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G14" s="1">
+        <v>18.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G15" s="1">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="G16" s="1">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G19" s="1">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G20" s="1">
+        <v>14.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="C21" s="1">
         <v>0.27</v>
       </c>
-      <c r="D3">
+      <c r="D21" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G21" s="1">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G22" s="1">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="D23" s="1">
         <v>0.61</v>
       </c>
-      <c r="E3">
+      <c r="E23" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G23" s="1">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="D25" s="1">
         <v>0.6</v>
       </c>
-      <c r="F3">
-        <v>0.61</v>
-      </c>
-      <c r="G3">
-        <v>21.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E25" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G25" s="1">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4">
-        <v>0.44</v>
-      </c>
-      <c r="C4">
-        <v>0.38</v>
-      </c>
-      <c r="D4">
-        <v>0.61</v>
-      </c>
-      <c r="E4">
-        <v>0.76</v>
-      </c>
-      <c r="F4">
-        <v>0.68</v>
-      </c>
-      <c r="G4">
-        <v>24.42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B32" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C5">
-        <v>0.35</v>
-      </c>
-      <c r="D5">
-        <v>0.65</v>
-      </c>
-      <c r="E5">
-        <v>0.66</v>
-      </c>
-      <c r="F5">
-        <v>0.66</v>
-      </c>
-      <c r="G5">
-        <v>13.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6">
-        <v>0.49</v>
-      </c>
-      <c r="C6">
-        <v>0.43</v>
-      </c>
-      <c r="D6">
-        <v>0.64</v>
-      </c>
-      <c r="E6">
-        <v>0.79</v>
-      </c>
-      <c r="F6">
-        <v>0.71</v>
-      </c>
-      <c r="G6">
-        <v>10.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>0.45</v>
-      </c>
-      <c r="C7">
-        <v>0.42</v>
-      </c>
-      <c r="D7">
-        <v>0.62</v>
-      </c>
-      <c r="E7">
-        <v>0.79</v>
-      </c>
-      <c r="F7">
-        <v>0.69</v>
-      </c>
-      <c r="G7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>0.5</v>
-      </c>
-      <c r="C9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D9">
-        <v>0.63</v>
-      </c>
-      <c r="E9">
-        <v>0.61</v>
-      </c>
-      <c r="F9">
-        <v>0.61</v>
-      </c>
-      <c r="G9">
-        <v>23.54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>0.45</v>
-      </c>
-      <c r="C10">
-        <v>0.42</v>
-      </c>
-      <c r="D10">
-        <v>0.62</v>
-      </c>
-      <c r="E10">
-        <v>0.79</v>
-      </c>
-      <c r="F10">
-        <v>0.69</v>
-      </c>
-      <c r="G10">
-        <v>28.76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C11">
-        <v>0.41</v>
-      </c>
-      <c r="D11">
-        <v>0.67</v>
-      </c>
-      <c r="E11">
-        <v>0.69</v>
-      </c>
-      <c r="F11">
-        <v>0.68</v>
-      </c>
-      <c r="G11">
-        <v>16.77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12">
-        <v>0.5</v>
-      </c>
-      <c r="C12">
-        <v>0.46</v>
-      </c>
-      <c r="D12">
-        <v>0.65</v>
-      </c>
-      <c r="E12">
-        <v>0.8</v>
-      </c>
-      <c r="F12">
-        <v>0.72</v>
-      </c>
-      <c r="G12">
-        <v>13.84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>0.46</v>
-      </c>
-      <c r="C13">
-        <v>0.44</v>
-      </c>
-      <c r="D13">
-        <v>0.63</v>
-      </c>
-      <c r="E13">
-        <v>0.79</v>
-      </c>
-      <c r="F13">
-        <v>0.7</v>
-      </c>
-      <c r="G13">
-        <v>15.37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>0.47</v>
-      </c>
-      <c r="C15">
-        <v>0.25</v>
-      </c>
-      <c r="D15">
-        <v>0.59</v>
-      </c>
-      <c r="E15">
-        <v>0.6</v>
-      </c>
-      <c r="F15">
-        <v>0.6</v>
-      </c>
-      <c r="G15">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>0.44</v>
-      </c>
-      <c r="C16">
-        <v>0.35</v>
-      </c>
-      <c r="D16">
-        <v>0.6</v>
-      </c>
-      <c r="E16">
-        <v>0.75</v>
-      </c>
-      <c r="F16">
-        <v>0.67</v>
-      </c>
-      <c r="G16">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>0.54</v>
-      </c>
-      <c r="C17">
-        <v>0.31</v>
-      </c>
-      <c r="D17">
-        <v>0.64</v>
-      </c>
-      <c r="E17">
-        <v>0.63</v>
-      </c>
-      <c r="F17">
-        <v>0.64</v>
-      </c>
-      <c r="G17">
-        <v>10.26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>0.47</v>
-      </c>
-      <c r="C18">
-        <v>0.4</v>
-      </c>
-      <c r="D18">
-        <v>0.63</v>
-      </c>
-      <c r="E18">
-        <v>0.78</v>
-      </c>
-      <c r="F18">
-        <v>0.7</v>
-      </c>
-      <c r="G18">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>0.44</v>
-      </c>
-      <c r="C19">
-        <v>0.4</v>
-      </c>
-      <c r="D19">
-        <v>0.61</v>
-      </c>
-      <c r="E19">
-        <v>0.78</v>
-      </c>
-      <c r="F19">
-        <v>0.69</v>
-      </c>
-      <c r="G19">
-        <v>9.48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
+      <c r="B33" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E33" s="1">
         <v>0.01</v>
       </c>
-      <c r="C21">
-        <v>0.01</v>
-      </c>
-      <c r="D21">
+      <c r="F33" s="1">
         <v>0.02</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0.03</v>
-      </c>
-      <c r="D22">
-        <v>0.01</v>
-      </c>
-      <c r="E22">
-        <v>0.02</v>
-      </c>
-      <c r="F22">
-        <v>0.01</v>
-      </c>
-      <c r="G22">
-        <v>4.1100000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0.02</v>
-      </c>
-      <c r="C23">
-        <v>0.04</v>
-      </c>
-      <c r="D23">
-        <v>0.01</v>
-      </c>
-      <c r="E23">
-        <v>0.02</v>
-      </c>
-      <c r="F23">
-        <v>0.02</v>
-      </c>
-      <c r="G23">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>0.01</v>
-      </c>
-      <c r="C24">
-        <v>0.02</v>
-      </c>
-      <c r="D24">
-        <v>0.01</v>
-      </c>
-      <c r="E24">
-        <v>0.01</v>
-      </c>
-      <c r="F24">
-        <v>0.01</v>
-      </c>
-      <c r="G24">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>0.01</v>
-      </c>
-      <c r="C25">
-        <v>0.02</v>
-      </c>
-      <c r="D25">
-        <v>0.01</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
+      <c r="G33" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
